--- a/TexasHoldem/clustering/TempsClusteringDico.xlsx
+++ b/TexasHoldem/clustering/TempsClusteringDico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\bboykid\ENSAE\Poker-Project\TexasHoldem\clustering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96DEA2BE-92FE-48F1-B691-50A1BBFA2A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFAA631-D869-4E31-B57F-8149B8A92DBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80415E08-E3EB-442D-9904-DFF76CC05741}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80415E08-E3EB-442D-9904-DFF76CC05741}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -93,8 +93,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -248,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -310,6 +311,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -328,40 +359,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -681,7 +685,7 @@
   <dimension ref="B1:L19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +696,7 @@
     <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" style="1" customWidth="1"/>
     <col min="10" max="11" width="17.28515625" style="1" customWidth="1"/>
@@ -702,21 +706,21 @@
   <sheetData>
     <row r="1" spans="2:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="19"/>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="2:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -841,10 +845,10 @@
       <c r="H6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="32"/>
+      <c r="I6" s="25"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
-      <c r="L6" s="34"/>
+      <c r="L6" s="27"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
@@ -866,26 +870,26 @@
       <c r="H7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="33"/>
+      <c r="I7" s="26"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
-      <c r="L7" s="35"/>
+      <c r="L7" s="28"/>
     </row>
     <row r="8" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="H8" s="24" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="H8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
     </row>
     <row r="9" spans="2:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
@@ -927,15 +931,15 @@
         <f>0.000124*F4</f>
         <v>41106</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="23">
         <f>C10/60</f>
         <v>685.1</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="24">
         <f>D10/60</f>
         <v>11.418333333333333</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="24">
         <f>E10/24</f>
         <v>0.47576388888888888</v>
       </c>
@@ -946,15 +950,15 @@
         <f>0.000124*L4</f>
         <v>5239</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="23">
         <f>I10/60</f>
         <v>87.316666666666663</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="24">
         <f>J10/60</f>
         <v>1.4552777777777777</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="24">
         <f>K10/24</f>
         <v>6.0636574074074072E-2</v>
       </c>
@@ -995,7 +999,7 @@
         <v>2856.1505555555555</v>
       </c>
       <c r="L11" s="10">
-        <f t="shared" ref="L11:L13" si="3">K11/24</f>
+        <f t="shared" ref="L11" si="3">K11/24</f>
         <v>119.00627314814814</v>
       </c>
     </row>
@@ -1022,10 +1026,10 @@
       <c r="H12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
@@ -1050,26 +1054,26 @@
       <c r="H13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="H14" s="24" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="H14" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
     </row>
     <row r="15" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
@@ -1111,16 +1115,16 @@
         <f>0.0000094675*F4</f>
         <v>3138.4762500000002</v>
       </c>
-      <c r="D16" s="29">
-        <f>C16/60</f>
+      <c r="D16" s="9">
+        <f t="shared" ref="D16:F19" si="6">C16/60</f>
         <v>52.307937500000001</v>
       </c>
-      <c r="E16" s="30">
-        <f>D16/60</f>
+      <c r="E16" s="38">
+        <f t="shared" si="6"/>
         <v>0.87179895833333332</v>
       </c>
-      <c r="F16" s="29">
-        <f>E16/60</f>
+      <c r="F16" s="9">
+        <f t="shared" si="6"/>
         <v>1.4529982638888888E-2</v>
       </c>
       <c r="H16" s="6" t="s">
@@ -1130,16 +1134,16 @@
         <f>0.0000094675*L4</f>
         <v>400.00187500000004</v>
       </c>
-      <c r="J16" s="29">
-        <f>I16/60</f>
+      <c r="J16" s="23">
+        <f t="shared" ref="J16:L17" si="7">I16/60</f>
         <v>6.6666979166666671</v>
       </c>
-      <c r="K16" s="29">
-        <f>J16/60</f>
+      <c r="K16" s="23">
+        <f t="shared" si="7"/>
         <v>0.11111163194444446</v>
       </c>
-      <c r="L16" s="29">
-        <f>K16/60</f>
+      <c r="L16" s="23">
+        <f t="shared" si="7"/>
         <v>1.8518605324074075E-3</v>
       </c>
     </row>
@@ -1151,16 +1155,16 @@
         <f>0.0000094675*F5</f>
         <v>6151413.4500000002</v>
       </c>
-      <c r="D17" s="28">
-        <f>C17/60</f>
+      <c r="D17" s="10">
+        <f t="shared" si="6"/>
         <v>102523.55750000001</v>
       </c>
-      <c r="E17" s="28">
-        <f>D17/60</f>
+      <c r="E17" s="10">
+        <f t="shared" si="6"/>
         <v>1708.7259583333334</v>
       </c>
-      <c r="F17" s="27">
-        <f>E17/60</f>
+      <c r="F17" s="37">
+        <f t="shared" si="6"/>
         <v>28.478765972222224</v>
       </c>
       <c r="H17" s="6" t="s">
@@ -1170,16 +1174,16 @@
         <f>0.0000094675*L5</f>
         <v>785049.83374999999</v>
       </c>
-      <c r="J17" s="28">
-        <f>I17/60</f>
+      <c r="J17" s="10">
+        <f t="shared" si="7"/>
         <v>13084.163895833333</v>
       </c>
-      <c r="K17" s="28">
-        <f>J17/60</f>
+      <c r="K17" s="22">
+        <f t="shared" si="7"/>
         <v>218.0693982638889</v>
       </c>
-      <c r="L17" s="27">
-        <f>K17/60</f>
+      <c r="L17" s="21">
+        <f t="shared" si="7"/>
         <v>3.6344899710648151</v>
       </c>
     </row>
@@ -1191,25 +1195,25 @@
         <f>0.0000094675*F6</f>
         <v>48186072.024999999</v>
       </c>
-      <c r="D18" s="28">
-        <f>C18/60</f>
+      <c r="D18" s="10">
+        <f t="shared" si="6"/>
         <v>803101.20041666669</v>
       </c>
-      <c r="E18" s="28">
-        <f>D18/60</f>
+      <c r="E18" s="10">
+        <f t="shared" si="6"/>
         <v>13385.020006944445</v>
       </c>
-      <c r="F18" s="28">
-        <f>E18/60</f>
+      <c r="F18" s="10">
+        <f t="shared" si="6"/>
         <v>223.08366678240742</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="32"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
@@ -1219,25 +1223,25 @@
         <f>0.00000945675*F7</f>
         <v>632583.56889000023</v>
       </c>
-      <c r="D19" s="31">
-        <f>C19/60</f>
+      <c r="D19" s="11">
+        <f t="shared" si="6"/>
         <v>10543.059481500004</v>
       </c>
-      <c r="E19" s="31">
-        <f>D19/60</f>
+      <c r="E19" s="11">
+        <f t="shared" si="6"/>
         <v>175.71765802500008</v>
       </c>
-      <c r="F19" s="36">
-        <f>E19/60</f>
+      <c r="F19" s="39">
+        <f t="shared" si="6"/>
         <v>2.9286276337500015</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">
